--- a/biology/Botanique/Breganze_Cabernet_Sauvignon_superiore/Breganze_Cabernet_Sauvignon_superiore.xlsx
+++ b/biology/Botanique/Breganze_Cabernet_Sauvignon_superiore/Breganze_Cabernet_Sauvignon_superiore.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Breganze Cabernet Sauvignon superiore est un vin italien de la région Vénétie doté d'une appellation DOC depuis le 18 juillet 1969. Seuls ont droit à la DOC les vins rouges récoltés à l'intérieur de l'aire de production définie par le décret. 
@@ -512,7 +524,9 @@
           <t>Aire de production</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les vignobles autorisés se situent en province de Vicence dans les communes de Bassano del Grappa, Breganze, Fara Vicentino, Lugo di Vicenza, Marostica, Mason Vicentino, Molvena, Montecchio Precalcino, Pianezze, Salcedo, Sandrigo, Sarcedo et Zugliano. Les vignobles se situent sur des pentes des collines entre les fleuves Brenta et Astico (un affluent du Bacchiglione).
 Le vin rouge du Cabernet Sauvignon superiore répond à un cahier des charges plus exigeant que le Breganze Cabernet Sauvignon, essentiellement en relation avec un taux d’alcool plus élevé. 
@@ -544,7 +558,9 @@
           <t>Caractéristiques organoleptiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">couleur: rouge rubis intense
 odeur: délicat, intense, épicé
@@ -579,6 +595,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -605,6 +623,8 @@
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -630,7 +650,9 @@
           <t>Production</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Province, saison, volume en hectolitres : 
  pas de données disponibles </t>
